--- a/4-mill-vent/BOM.xlsx
+++ b/4-mill-vent/BOM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dogma\OneDrive\Desktop\1-mill\4-mill-vent\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43BC4F6E-6962-41E9-B586-C39D9DFB4390}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DF293D0-B7C9-4D88-B642-44108C766F2B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3312" yWindow="528" windowWidth="21360" windowHeight="11364" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3036" yWindow="1080" windowWidth="16128" windowHeight="9552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="191">
   <si>
     <t>C1</t>
   </si>
@@ -543,9 +543,6 @@
     <t>https://www.mouser.com/ProductDetail/ECS/ECS-160-18-23B-JTM-TR?qs=9r4v7xj2LnkNXR3nvzv5Lw%3D%3D</t>
   </si>
   <si>
-    <t>https://www.mouser.com/datasheet/2/122/ecx_64r-5895.pdf</t>
-  </si>
-  <si>
     <t>Crystals 16MHz 18pF ESR 50 20ppm -20C +70C</t>
   </si>
   <si>
@@ -568,6 +565,39 @@
   </si>
   <si>
     <t>Motor1</t>
+  </si>
+  <si>
+    <t>PTS645SK43SMTR92LFS</t>
+  </si>
+  <si>
+    <t>Tactile Switches SWITCH TACTILE</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/CK/PTS645SK43SMTR92LFS?qs=UxeAxwACbqlWa%2Fy4o%252BzfBw%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/datasheet/2/60/pts645-1841767.pdf</t>
+  </si>
+  <si>
+    <t>APS4812B-LW100-R</t>
+  </si>
+  <si>
+    <t>Speakers &amp; Transducers 1200 Hz 30 Vp-p</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/PUI-Audio/APS4812B-LW100-R?qs=%2Fha2pyFadujofyxY9mbLbLN2HU8Wevibm5SjnMN8f6j%252Bk0hf0aQGgQ%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/datasheet/2/334/APS4812B-LW100-R-17217.pdf</t>
+  </si>
+  <si>
+    <t>PTS645</t>
+  </si>
+  <si>
+    <t>Chassie Mount</t>
+  </si>
+  <si>
+    <t>removed</t>
   </si>
 </sst>
 </file>
@@ -901,8 +931,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="B91" sqref="B91"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1737,10 +1767,10 @@
         <v>151</v>
       </c>
       <c r="B45" t="s">
+        <v>172</v>
+      </c>
+      <c r="C45" t="s">
         <v>173</v>
-      </c>
-      <c r="C45" t="s">
-        <v>174</v>
       </c>
       <c r="D45" t="s">
         <v>170</v>
@@ -1748,9 +1778,7 @@
       <c r="E45" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="F45" s="1" t="s">
-        <v>172</v>
-      </c>
+      <c r="F45" s="1"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
@@ -1767,162 +1795,243 @@
         <v>125</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B49" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
+        <v>174</v>
+      </c>
+      <c r="B70" t="s">
+        <v>181</v>
+      </c>
+      <c r="C70" t="s">
+        <v>188</v>
+      </c>
+      <c r="D70" t="s">
+        <v>180</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A71" t="s">
+      <c r="B71" t="s">
+        <v>181</v>
+      </c>
+      <c r="C71" t="s">
+        <v>188</v>
+      </c>
+      <c r="D71" t="s">
+        <v>180</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A72" t="s">
+      <c r="B72" t="s">
+        <v>181</v>
+      </c>
+      <c r="C72" t="s">
+        <v>188</v>
+      </c>
+      <c r="D72" t="s">
+        <v>180</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A73" t="s">
+      <c r="B73" t="s">
+        <v>181</v>
+      </c>
+      <c r="C73" t="s">
+        <v>188</v>
+      </c>
+      <c r="D73" t="s">
+        <v>180</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A74" t="s">
+      <c r="B74" t="s">
+        <v>185</v>
+      </c>
+      <c r="C74" t="s">
+        <v>189</v>
+      </c>
+      <c r="D74" t="s">
+        <v>184</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A75" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C75" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>156</v>
       </c>
@@ -2063,9 +2172,18 @@
     <hyperlink ref="E44" r:id="rId71" xr:uid="{52B61B63-099E-4CB4-B109-F5DBE9A452F9}"/>
     <hyperlink ref="F44" r:id="rId72" xr:uid="{860B74F0-74D6-4F38-AF2C-04CE13925EE0}"/>
     <hyperlink ref="E45" r:id="rId73" xr:uid="{20BBE847-C17C-4CFB-BD21-22F5FA0B3F16}"/>
-    <hyperlink ref="F45" r:id="rId74" xr:uid="{FBE477D1-70D0-4F99-863F-6816B2318940}"/>
+    <hyperlink ref="E70" r:id="rId74" xr:uid="{CF46B2C0-F4A5-480C-89F1-DDECF527E398}"/>
+    <hyperlink ref="E71" r:id="rId75" xr:uid="{813A47BE-F0D0-4304-A07A-7EBA1E0D9591}"/>
+    <hyperlink ref="E72" r:id="rId76" xr:uid="{1A5EE8D9-D2CE-4B46-99CF-60C033754D04}"/>
+    <hyperlink ref="E73" r:id="rId77" xr:uid="{0DFB8794-3C29-4FCF-A708-CA41326542FD}"/>
+    <hyperlink ref="F73" r:id="rId78" xr:uid="{BB79A657-5896-4B40-B1A4-5E98D266F503}"/>
+    <hyperlink ref="F72" r:id="rId79" xr:uid="{D667401A-F191-4C29-8B88-EFF5F0AEBE78}"/>
+    <hyperlink ref="F70" r:id="rId80" xr:uid="{60A65D24-1581-4232-8B23-16001590E4CC}"/>
+    <hyperlink ref="F71" r:id="rId81" xr:uid="{C47CC729-A392-494D-8865-DAA905F604E0}"/>
+    <hyperlink ref="E74" r:id="rId82" xr:uid="{4781A78F-EF51-45A9-9D53-82D9EBE8C563}"/>
+    <hyperlink ref="F74" r:id="rId83" xr:uid="{2EDCD0BA-9583-4A39-8A9C-78A00ED4D800}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId75"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId84"/>
 </worksheet>
 </file>
--- a/4-mill-vent/BOM.xlsx
+++ b/4-mill-vent/BOM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dogma\OneDrive\Desktop\1-mill\4-mill-vent\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DF293D0-B7C9-4D88-B642-44108C766F2B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5F579FA-7720-497C-B9F2-2F64BE542AB5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3036" yWindow="1080" windowWidth="16128" windowHeight="9552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3240" yWindow="2280" windowWidth="18108" windowHeight="9540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="290">
   <si>
     <t>C1</t>
   </si>
@@ -300,9 +300,6 @@
     <t>Bipolar Transistors - BJT 0.2A 40V 1.5W NPN</t>
   </si>
   <si>
-    <t>Bipolar Transistors - BJT 40V NPN</t>
-  </si>
-  <si>
     <t>SOT-223-4</t>
   </si>
   <si>
@@ -525,12 +522,6 @@
     <t>BT2</t>
   </si>
   <si>
-    <t>six(6) cells in series 18650 or 26650 highest current rating</t>
-  </si>
-  <si>
-    <t>six(6) cells in series no idea in the plan for this</t>
-  </si>
-  <si>
     <t>Charger</t>
   </si>
   <si>
@@ -598,13 +589,319 @@
   </si>
   <si>
     <t>removed</t>
+  </si>
+  <si>
+    <t>DC Motor Vibration, ERM 10000 RPM 3VDC</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/product-detail/en/seeed-technology-co-ltd/316040004/1597-1245-ND/5487673</t>
+  </si>
+  <si>
+    <t>https://media.digikey.com/pdf/Data%20Sheets/Seeed%20Technology/1027_Spec.pdf</t>
+  </si>
+  <si>
+    <t>WHITE</t>
+  </si>
+  <si>
+    <t>APTD1608VBC/D</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/Kingbright/APTD1608VBC-D?qs=Rt2YTNbomKgKG1skWlFZLw%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/datasheet/2/216/APTD1608VBC-D-472161.pdf</t>
+  </si>
+  <si>
+    <t>SM0603UWC</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/Bivar/SM0603UWC?qs=jaLxTFIJCitV8o3XQorFYg%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/datasheet/2/50/SM0603UWC-880813.pdf</t>
+  </si>
+  <si>
+    <t>KS DELPS1.22-TIVH-68-H3Q4</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/OSRAM-Opto-Semiconductors/KS-DELPS122-TIVH-68-H3Q4?qs=%252BEew9%252B0nqrAveouEAVKfSw%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/Lumex/SML-LXIL0603UPGCTR?qs=gZXFycFWdAOIg5vFcGcioA%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/datasheet/2/244/SML-LXIL0603UPGCTR-1530140.pdf</t>
+  </si>
+  <si>
+    <t>SML-LXIL0603UPGCTR</t>
+  </si>
+  <si>
+    <t>VLMY1300-GS08</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/Vishay-Semiconductors/VLMY1300-GS08?qs=uoVnq4yU%252B9LyY5CVnohKmg%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/datasheet/2/427/vlmo1300-1766934.pdf</t>
+  </si>
+  <si>
+    <t>LTR18EZPJ301</t>
+  </si>
+  <si>
+    <t>300 Ohms, 750 mW. 3/4 W, 5 %, 	200 PPM / C</t>
+  </si>
+  <si>
+    <t>0612, 1632</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/ROHM-Semiconductor/LTR18EZPJ301?qs=%2Fha2pyFadugfoPeEjT5hTIqtzvh5B9koKf3u%2FOOUcUOINEBpN19mcQ%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/datasheet/2/348/ltr-e-1139145.pdf</t>
+  </si>
+  <si>
+    <t>six(6) cells in series 18650 or 18650 6S2P highest current rating</t>
+  </si>
+  <si>
+    <t xml:space="preserve">six(6) cells in series </t>
+  </si>
+  <si>
+    <t>4814P-1-331LF</t>
+  </si>
+  <si>
+    <t>RN73H2BTTD4322F100</t>
+  </si>
+  <si>
+    <t>RN73H2BTTD8061F50</t>
+  </si>
+  <si>
+    <t>SOIC-14 3.9x8.7x1.27mm</t>
+  </si>
+  <si>
+    <t>C17</t>
+  </si>
+  <si>
+    <t>22-23-2023</t>
+  </si>
+  <si>
+    <t>Headers &amp; Wire Housings KK 100 Hdr FrLk Vert 02 Ckt Tin</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/Molex/22-23-2023?qs=52ipEG6BoUHegR7NRmymbQ%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/datasheet/2/276/022232023_sd-590068.pdf</t>
+  </si>
+  <si>
+    <t>22-23-2042</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/Molex/22-23-2042?qs=52ipEG6BoUGnVIQV2y3Jgg%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/datasheet/2/276/022232042_sd-590120.pdf</t>
+  </si>
+  <si>
+    <t>Headers &amp; Wire Housings KK 100 Hdr FrLk Vert 04 Ckt Tin</t>
+  </si>
+  <si>
+    <t>22-23-2037</t>
+  </si>
+  <si>
+    <t>Headers &amp; Wire Housings KK 100 Hdr FrLk Vert 03 Ckt Tin</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/Molex/22-23-2037?qs=52ipEG6BoUGgCTv8s5iZJA%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/datasheet/2/276/022232037_sd-589157.pdf</t>
+  </si>
+  <si>
+    <t>Removed</t>
+  </si>
+  <si>
+    <t>CRCW060310K0JNEAHP</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/Vishay-Dale/CRCW060310K0JNEAHP?qs=k2%2FDWSARqgH8Om6O4X312A%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/datasheet/2/427/crcwhpe3-1713858.pdf</t>
+  </si>
+  <si>
+    <t>Thick Film Resistors - SMD 1/4watt 10Kohms 5%</t>
+  </si>
+  <si>
+    <t>RCS06031K00JNEA</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/Vishay-Dale/RCS06031K00JNEA?qs=NKmfXavxMawsM4RhZCFdQg%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/datasheet/2/427/rcse3-1761771.pdf</t>
+  </si>
+  <si>
+    <t>Thick Film Resistors - SMD 0.25watt 1Kohms 5% 200ppm</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/Bourns/4814P-1-331LF?qs=%2Fha2pyFaduhQyoBFeFZfD6xbQqpIxQdfnBPgeIJl8yivTj6zBhDN8g%3D%3D</t>
+  </si>
+  <si>
+    <t>Resistor Networks &amp; Arrays 330ohm 2% 14 Pin</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/datasheet/2/54/4800P-777115.pdf</t>
+  </si>
+  <si>
+    <t>Thick Film Resistors - SMD 0.25watt 100Kohms 5% 200ppm</t>
+  </si>
+  <si>
+    <t>RCS0603100KJNEA</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/Vishay-Dale/RCS0603100KJNEA?qs=NKmfXavxMaxmotuD1habtA%3D%3D</t>
+  </si>
+  <si>
+    <t>ERJ-PA3J331V</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thick Film Resistors - SMD 330ohm 5% </t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/Panasonic/ERJ-PA3J331V?qs=BzJM0faLVqWDr5skovv6aw%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/datasheet/2/315/AOA0000C331-1141874.pdf</t>
+  </si>
+  <si>
+    <t>ERJ-PA3J564V</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/Panasonic/ERJ-PA3J564V?qs=BzJM0faLVqU%252BnfZdwqH5EQ%3D%3D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thick Film Resistors - SMD 560Kohm 5% </t>
+  </si>
+  <si>
+    <t>Thick Film Resistors - SMD 0603 560Kohm 5% Anti-Surge AEC-Q200</t>
+  </si>
+  <si>
+    <t>ESR03EZPJ824</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/ROHM-Semiconductor/ESR03EZPJ824?qs=493kPxzlxfJAnMYOiiyG%2Fg%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/datasheet/2/348/esr-e-1139161.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thick Film Resistors - SMD 820Kohm 5% </t>
+  </si>
+  <si>
+    <t>Thick Film Resistors - SMD 220Kohm 5%</t>
+  </si>
+  <si>
+    <t>ESR03EZPJ224</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/ROHM-Semiconductor/ESR03EZPJ224?qs=493kPxzlxfKIu%252BBXUS2v9w%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/KOA-Speer/RN73H2BTTD4322F100?qs=%2Fha2pyFaduhqt%2FIphlhl5nO%2FbyImCPlC5Ip%252BrD5EoPCi9qhDid6iQNBaM3kWk9%252B4</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/datasheet/2/219/RN73H-1843478.pdf</t>
+  </si>
+  <si>
+    <t>Thin Film Resistors - SMD 43.2kOhm,1206,1%,10p pm,250mW,150V</t>
+  </si>
+  <si>
+    <t>Thin Film Resistors - SMD 8.06kOhm,1206,1%,50p pm,250mW,150V</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/KOA-Speer/RN73H2BTTD8061F50?qs=%2Fha2pyFaduhqt%2FIphlhl5nt3YKmutqdmUqt%2F2acA%252BYf5MosIJ3QRTQ%3D%3D</t>
+  </si>
+  <si>
+    <t>Headers &amp; Wire Housings CGrid SMT Bkwy Hdr Tin 92Ckt Tubew/VC</t>
+  </si>
+  <si>
+    <t>71308-0492</t>
+  </si>
+  <si>
+    <t>MAKES 15 HEADERS</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/datasheet/2/276/015911060_sd-592943.pdf</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/Molex/71308-0492?qs=%2Fha2pyFadug853Vzl0%252BoJoJJUJ01AWjhTnzQztnffbyx9x2vi6Xrvg%3D%3D</t>
+  </si>
+  <si>
+    <t>Headers &amp; Wire Housings HSG 2P W/RAMP/RIBS</t>
+  </si>
+  <si>
+    <t>22-01-3027</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/Molex/22-01-3027?qs=cRUT3GdJqnwywyFd19%252BSsA%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/datasheet/2/276/0022013027_CRIMP_HOUSINGS-158305.pdf</t>
+  </si>
+  <si>
+    <t>CONN 22-30AWG CRIMP TIN</t>
+  </si>
+  <si>
+    <t>pins for molex</t>
+  </si>
+  <si>
+    <t>22-01-3037</t>
+  </si>
+  <si>
+    <t>Headers &amp; Wire Housings HSG 3P W/RAMP/RIBS</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/Molex/22-01-3037?qs=cRUT3GdJqnw5IA1z0J2xqA%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/datasheet/2/276/0022013037_CRIMP_HOUSINGS-158306.pdf</t>
+  </si>
+  <si>
+    <t>Headers &amp; Wire Housings HSG 4P W/RAMP/RIBS</t>
+  </si>
+  <si>
+    <t>22-01-3047</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/Molex/22-01-3047?qs=%2Fha2pyFadujVoN8fcIRqZuaRgtnpZIWW4sxgbwFiYNg%3D</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/datasheet/2/276/0022013047_CRIMP_HOUSINGS-158509.pdf</t>
+  </si>
+  <si>
+    <t>08-50-0114</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/Molex/08-50-0114?qs=sGAEpiMZZMvlX3nhDDO4AFKcDNxGpUzWu%2FtOVp59AYM%3D</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/datasheet/2/276/0008500114_CRIMP_TERMINALS-227200.pdf</t>
+  </si>
+  <si>
+    <t>105-03PMFS-SC7001</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/Amphenol-LTW/105-03PMFS-SC7001?qs=hVQAaAP6BjvJPDNwHAkOdg%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/datasheet/2/18/105-03PMFS-SC7001-1281236.pdf</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -616,6 +913,19 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -642,12 +952,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -929,10 +1252,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F91"/>
+  <dimension ref="A1:J93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="B48" sqref="B48"/>
+    <sheetView tabSelected="1" topLeftCell="A70" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E82" sqref="E82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -945,1156 +1268,1992 @@
     <col min="7" max="7" width="19.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F7" s="3" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F8" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="F9" s="3" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E10" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="F10" s="3" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E11" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="F11" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E12" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="F12" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E13" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="F13" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="E14" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="F14" s="3" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="E15" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="F15" s="3" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="E16" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="F16" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="E17" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="F17" s="3" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B19" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C19" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D19" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="E19" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="F19" s="3" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B20" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C20" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D20" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="E20" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="F19" s="1" t="s">
+      <c r="F20" s="3" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B21" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C21" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D21" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="E21" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="F20" s="1" t="s">
+      <c r="F21" s="3" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B22" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C23" s="2" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" t="s">
+      <c r="D23" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C26" s="2" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>25</v>
-      </c>
-      <c r="B23" t="s">
+      <c r="D26" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A31" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A32" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A33" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A34" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A35" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A36" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A37" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A38" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A39" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+      <c r="J39" s="2"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A40" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="2"/>
+      <c r="J40" s="2"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A41" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
+      <c r="I41" s="2"/>
+      <c r="J41" s="2"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A42" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
+      <c r="I42" s="2"/>
+      <c r="J42" s="2"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A43" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
+      <c r="I43" s="2"/>
+      <c r="J43" s="2"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A44" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="G44" s="2"/>
+      <c r="H44" s="2"/>
+      <c r="I44" s="2"/>
+      <c r="J44" s="2"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A45" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="G45" s="2"/>
+      <c r="H45" s="2"/>
+      <c r="I45" s="2"/>
+      <c r="J45" s="2"/>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A46" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="C23" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>26</v>
-      </c>
-      <c r="B24" t="s">
-        <v>149</v>
-      </c>
-      <c r="C24" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>27</v>
-      </c>
-      <c r="B25" t="s">
-        <v>150</v>
-      </c>
-      <c r="C25" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>28</v>
-      </c>
-      <c r="B26" t="s">
-        <v>148</v>
-      </c>
-      <c r="C26" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>29</v>
-      </c>
-      <c r="B27" t="s">
-        <v>147</v>
-      </c>
-      <c r="C27" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>30</v>
-      </c>
-      <c r="B28" t="s">
-        <v>62</v>
-      </c>
-      <c r="C28" t="s">
-        <v>65</v>
-      </c>
-      <c r="D28" t="s">
-        <v>61</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>31</v>
-      </c>
-      <c r="B29" t="s">
-        <v>62</v>
-      </c>
-      <c r="C29" t="s">
-        <v>65</v>
-      </c>
-      <c r="D29" t="s">
-        <v>61</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>32</v>
-      </c>
-      <c r="B30" t="s">
-        <v>69</v>
-      </c>
-      <c r="C30" t="s">
-        <v>67</v>
-      </c>
-      <c r="D30" t="s">
-        <v>68</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>33</v>
-      </c>
-      <c r="B31" t="s">
-        <v>62</v>
-      </c>
-      <c r="C31" t="s">
-        <v>65</v>
-      </c>
-      <c r="D31" t="s">
-        <v>61</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>34</v>
-      </c>
-      <c r="B32" t="s">
-        <v>69</v>
-      </c>
-      <c r="C32" t="s">
-        <v>67</v>
-      </c>
-      <c r="D32" t="s">
-        <v>68</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>35</v>
-      </c>
-      <c r="B33" t="s">
-        <v>62</v>
-      </c>
-      <c r="C33" t="s">
-        <v>65</v>
-      </c>
-      <c r="D33" t="s">
-        <v>61</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>77</v>
-      </c>
-      <c r="B34" t="s">
-        <v>91</v>
-      </c>
-      <c r="C34" t="s">
-        <v>87</v>
-      </c>
-      <c r="D34" t="s">
-        <v>84</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>78</v>
-      </c>
-      <c r="B35" t="s">
-        <v>91</v>
-      </c>
-      <c r="C35" t="s">
-        <v>87</v>
-      </c>
-      <c r="D35" t="s">
-        <v>84</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>79</v>
-      </c>
-      <c r="B36" t="s">
-        <v>90</v>
-      </c>
-      <c r="C36" t="s">
-        <v>92</v>
-      </c>
-      <c r="D36" t="s">
-        <v>89</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>80</v>
-      </c>
-      <c r="B37" t="s">
-        <v>90</v>
-      </c>
-      <c r="C37" t="s">
-        <v>92</v>
-      </c>
-      <c r="D37" t="s">
-        <v>89</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>81</v>
-      </c>
-      <c r="B38" t="s">
-        <v>96</v>
-      </c>
-      <c r="C38" t="s">
-        <v>95</v>
-      </c>
-      <c r="D38" t="s">
-        <v>97</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>82</v>
-      </c>
-      <c r="B39" t="s">
-        <v>88</v>
-      </c>
-      <c r="C39" t="s">
-        <v>87</v>
-      </c>
-      <c r="D39" t="s">
-        <v>84</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>83</v>
-      </c>
-      <c r="B40" t="s">
-        <v>88</v>
-      </c>
-      <c r="C40" t="s">
-        <v>87</v>
-      </c>
-      <c r="D40" t="s">
-        <v>84</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>100</v>
-      </c>
-      <c r="B41" t="s">
-        <v>105</v>
-      </c>
-      <c r="C41" t="s">
-        <v>106</v>
-      </c>
-      <c r="D41" t="s">
-        <v>104</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>101</v>
-      </c>
-      <c r="B42" t="s">
-        <v>110</v>
-      </c>
-      <c r="C42" t="s">
-        <v>111</v>
-      </c>
-      <c r="D42" t="s">
-        <v>109</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>102</v>
-      </c>
-      <c r="B43" t="s">
-        <v>114</v>
-      </c>
-      <c r="C43" t="s">
-        <v>115</v>
-      </c>
-      <c r="D43" t="s">
-        <v>116</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>103</v>
-      </c>
-      <c r="B44" t="s">
+      <c r="B46" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="F46" s="3"/>
+      <c r="G46" s="2"/>
+      <c r="H46" s="2"/>
+      <c r="I46" s="2"/>
+      <c r="J46" s="2"/>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A47" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="C44" t="s">
-        <v>95</v>
-      </c>
-      <c r="D44" t="s">
-        <v>119</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
+      <c r="B47" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="G47" s="2"/>
+      <c r="H47" s="2"/>
+      <c r="I47" s="2"/>
+      <c r="J47" s="2"/>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A48" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C48" s="2"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2"/>
+      <c r="F48" s="2"/>
+      <c r="G48" s="2"/>
+      <c r="H48" s="2"/>
+      <c r="I48" s="2"/>
+      <c r="J48" s="2"/>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A49" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C49" s="2"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2"/>
+      <c r="G49" s="2"/>
+      <c r="H49" s="2"/>
+      <c r="I49" s="2"/>
+      <c r="J49" s="2"/>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A50" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C50" s="2"/>
+      <c r="D50" s="2"/>
+      <c r="E50" s="2"/>
+      <c r="F50" s="2"/>
+      <c r="G50" s="2"/>
+      <c r="H50" s="2"/>
+      <c r="I50" s="2"/>
+      <c r="J50" s="2"/>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A51" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="G51" s="2"/>
+      <c r="H51" s="2"/>
+      <c r="I51" s="2"/>
+      <c r="J51" s="2"/>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A52" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="G52" s="2"/>
+      <c r="H52" s="2"/>
+      <c r="I52" s="2"/>
+      <c r="J52" s="2"/>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A53" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="G53" s="2"/>
+      <c r="H53" s="2"/>
+      <c r="I53" s="2"/>
+      <c r="J53" s="2"/>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A54" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="G54" s="2"/>
+      <c r="H54" s="2"/>
+      <c r="I54" s="2"/>
+      <c r="J54" s="2"/>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A55" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="G55" s="2"/>
+      <c r="H55" s="2"/>
+      <c r="I55" s="2"/>
+      <c r="J55" s="2"/>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A56" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C56" s="2"/>
+      <c r="D56" s="2"/>
+      <c r="E56" s="2"/>
+      <c r="F56" s="2"/>
+      <c r="G56" s="2"/>
+      <c r="H56" s="2"/>
+      <c r="I56" s="2"/>
+      <c r="J56" s="2"/>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A57" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="G57" s="2"/>
+      <c r="H57" s="2"/>
+      <c r="I57" s="2"/>
+      <c r="J57" s="2"/>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A58" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="G58" s="2"/>
+      <c r="H58" s="2"/>
+      <c r="I58" s="2"/>
+      <c r="J58" s="2"/>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A59" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="G59" s="2"/>
+      <c r="H59" s="2"/>
+      <c r="I59" s="2"/>
+      <c r="J59" s="2"/>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A60" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="G60" s="2"/>
+      <c r="H60" s="2"/>
+      <c r="I60" s="2"/>
+      <c r="J60" s="2"/>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A61" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="G61" s="2"/>
+      <c r="H61" s="2"/>
+      <c r="I61" s="2"/>
+      <c r="J61" s="2"/>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A62" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="G62" s="2"/>
+      <c r="H62" s="2"/>
+      <c r="I62" s="2"/>
+      <c r="J62" s="2"/>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A63" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="G63" s="2"/>
+      <c r="H63" s="2"/>
+      <c r="I63" s="2"/>
+      <c r="J63" s="2"/>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A64" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="G64" s="2"/>
+      <c r="H64" s="2"/>
+      <c r="I64" s="2"/>
+      <c r="J64" s="2"/>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A65" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="G65" s="2"/>
+      <c r="H65" s="2"/>
+      <c r="I65" s="2"/>
+      <c r="J65" s="2"/>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A66" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="G66" s="2"/>
+      <c r="H66" s="2"/>
+      <c r="I66" s="2"/>
+      <c r="J66" s="2"/>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A67" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="G67" s="2"/>
+      <c r="H67" s="2"/>
+      <c r="I67" s="2"/>
+      <c r="J67" s="2"/>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A68" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="G68" s="2"/>
+      <c r="H68" s="2"/>
+      <c r="I68" s="2"/>
+      <c r="J68" s="2"/>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A69" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="G69" s="2"/>
+      <c r="H69" s="2"/>
+      <c r="I69" s="2"/>
+      <c r="J69" s="2"/>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A70" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C70" s="2"/>
+      <c r="D70" s="2"/>
+      <c r="E70" s="2"/>
+      <c r="F70" s="2"/>
+      <c r="G70" s="2"/>
+      <c r="H70" s="2"/>
+      <c r="I70" s="2"/>
+      <c r="J70" s="2"/>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A71" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E71" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="F71" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="G71" s="2"/>
+      <c r="H71" s="2"/>
+      <c r="I71" s="2"/>
+      <c r="J71" s="2"/>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A72" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="G72" s="2"/>
+      <c r="H72" s="2"/>
+      <c r="I72" s="2"/>
+      <c r="J72" s="2"/>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A73" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E73" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="F73" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="G73" s="2"/>
+      <c r="H73" s="2"/>
+      <c r="I73" s="2"/>
+      <c r="J73" s="2"/>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A74" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E74" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="F74" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="G74" s="2"/>
+      <c r="H74" s="2"/>
+      <c r="I74" s="2"/>
+      <c r="J74" s="2"/>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A75" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="E75" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="F75" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="G75" s="2"/>
+      <c r="H75" s="2"/>
+      <c r="I75" s="2"/>
+      <c r="J75" s="2"/>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A76" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="D76" s="2">
+        <v>316040004</v>
+      </c>
+      <c r="E76" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="F76" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="G76" s="2"/>
+      <c r="H76" s="2"/>
+      <c r="I76" s="2"/>
+      <c r="J76" s="2"/>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A77" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="B45" t="s">
-        <v>172</v>
-      </c>
-      <c r="C45" t="s">
-        <v>173</v>
-      </c>
-      <c r="D45" t="s">
-        <v>170</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="F45" s="1"/>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
-        <v>126</v>
-      </c>
-      <c r="B49" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A59" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A60" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A61" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A62" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A63" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A64" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A65" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A66" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A67" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A68" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A69" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A70" t="s">
-        <v>174</v>
-      </c>
-      <c r="B70" t="s">
-        <v>181</v>
-      </c>
-      <c r="C70" t="s">
-        <v>188</v>
-      </c>
-      <c r="D70" t="s">
-        <v>180</v>
-      </c>
-      <c r="E70" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="F70" s="1" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A71" t="s">
-        <v>175</v>
-      </c>
-      <c r="B71" t="s">
-        <v>181</v>
-      </c>
-      <c r="C71" t="s">
-        <v>188</v>
-      </c>
-      <c r="D71" t="s">
-        <v>180</v>
-      </c>
-      <c r="E71" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="F71" s="1" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A72" t="s">
-        <v>176</v>
-      </c>
-      <c r="B72" t="s">
-        <v>181</v>
-      </c>
-      <c r="C72" t="s">
-        <v>188</v>
-      </c>
-      <c r="D72" t="s">
-        <v>180</v>
-      </c>
-      <c r="E72" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="F72" s="1" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A73" t="s">
-        <v>177</v>
-      </c>
-      <c r="B73" t="s">
-        <v>181</v>
-      </c>
-      <c r="C73" t="s">
-        <v>188</v>
-      </c>
-      <c r="D73" t="s">
-        <v>180</v>
-      </c>
-      <c r="E73" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="F73" s="1" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A74" t="s">
-        <v>178</v>
-      </c>
-      <c r="B74" t="s">
-        <v>185</v>
-      </c>
-      <c r="C74" t="s">
-        <v>189</v>
-      </c>
-      <c r="D74" t="s">
-        <v>184</v>
-      </c>
-      <c r="E74" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="F74" s="1" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A75" t="s">
-        <v>179</v>
-      </c>
-      <c r="C75" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A76" t="s">
+      <c r="B77" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="C77" s="2"/>
+      <c r="D77" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="G77" s="2"/>
+      <c r="H77" s="2"/>
+      <c r="I77" s="2"/>
+      <c r="J77" s="2"/>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A77" t="s">
+      <c r="B78" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="D78" t="s">
+        <v>226</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A78" t="s">
+      <c r="B79" t="s">
+        <v>219</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A79" t="s">
+      <c r="B80" t="s">
+        <v>265</v>
+      </c>
+      <c r="C80" t="s">
+        <v>267</v>
+      </c>
+      <c r="D80" t="s">
+        <v>266</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A80" t="s">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A81" t="s">
+      <c r="D82" t="s">
+        <v>287</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A82" t="s">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A83" t="s">
+      <c r="B84" t="s">
+        <v>270</v>
+      </c>
+      <c r="D84" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A84" t="s">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A85" t="s">
+      <c r="B86" t="s">
+        <v>280</v>
+      </c>
+      <c r="D86" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A86" t="s">
+      <c r="D87" t="s">
+        <v>287</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A87" t="s">
+      <c r="D88" t="s">
+        <v>287</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>166</v>
+      </c>
+      <c r="B89" t="s">
+        <v>277</v>
+      </c>
+      <c r="D89" t="s">
+        <v>276</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A88" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A89" t="s">
+      <c r="B90" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
         <v>164</v>
       </c>
-      <c r="B89" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A90" t="s">
+      <c r="B91" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
         <v>165</v>
       </c>
-      <c r="B90" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A91" t="s">
-        <v>168</v>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B93" t="s">
+        <v>274</v>
+      </c>
+      <c r="C93" t="s">
+        <v>275</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="F93" s="1" t="s">
+        <v>286</v>
       </c>
     </row>
   </sheetData>
@@ -2131,59 +3290,131 @@
     <hyperlink ref="F14" r:id="rId30" xr:uid="{08ADF0C5-732E-4B68-9AC2-F55B76C6867D}"/>
     <hyperlink ref="E17" r:id="rId31" xr:uid="{08F94823-15CB-417B-A8D2-FD16953B0458}"/>
     <hyperlink ref="F17" r:id="rId32" xr:uid="{20D88E4E-1C77-4BDC-86CC-611D47C9AF2F}"/>
-    <hyperlink ref="E18" r:id="rId33" xr:uid="{D7111046-16C9-4117-8B4A-E0B8E7525425}"/>
-    <hyperlink ref="E19" r:id="rId34" xr:uid="{19BCAC35-94E5-4825-8F68-6BF91B804CF7}"/>
-    <hyperlink ref="E28" r:id="rId35" xr:uid="{4E923704-E6E0-4FE5-A0AB-03A13BB55B8C}"/>
-    <hyperlink ref="E29" r:id="rId36" xr:uid="{8401B1BC-5071-451A-AA6D-4ACD1EF2F76B}"/>
-    <hyperlink ref="E31" r:id="rId37" xr:uid="{3C963513-D236-40AE-BABF-717918A7921A}"/>
-    <hyperlink ref="E33" r:id="rId38" xr:uid="{2FE493C6-CC5A-4ED9-B5FE-8AC2D0FFCA13}"/>
-    <hyperlink ref="F18" r:id="rId39" xr:uid="{19CB7A33-1EAD-4E4D-99B9-6BB8715ABA82}"/>
-    <hyperlink ref="F19" r:id="rId40" xr:uid="{63694455-2B70-4BE1-B7EC-DEE8849DDF2E}"/>
-    <hyperlink ref="F28" r:id="rId41" xr:uid="{79FE8369-E7E0-4254-9983-D6128CF6AF5B}"/>
-    <hyperlink ref="F29" r:id="rId42" xr:uid="{17EDE9A6-63B4-4798-8088-280BA02C9F78}"/>
-    <hyperlink ref="F31" r:id="rId43" xr:uid="{DA800019-466F-4266-A31C-43157608EB39}"/>
-    <hyperlink ref="F33" r:id="rId44" xr:uid="{B482D5C5-ACA5-45FD-946B-6A0CD5293733}"/>
-    <hyperlink ref="E30" r:id="rId45" xr:uid="{C34D0ECE-601B-4351-961A-36B1FBAC49EF}"/>
-    <hyperlink ref="E32" r:id="rId46" xr:uid="{58EF85F6-678C-46B5-B0EB-4A898FBDFACE}"/>
-    <hyperlink ref="F32" r:id="rId47" xr:uid="{53D65463-F1E2-4EBB-8E1B-65AB8875BFBC}"/>
-    <hyperlink ref="F30" r:id="rId48" xr:uid="{A5755B45-A982-4BEC-B2C5-D6CAA28DCDFE}"/>
-    <hyperlink ref="E20" r:id="rId49" xr:uid="{3495AA7F-A2F3-4F7B-82BA-B69E27530AB8}"/>
-    <hyperlink ref="F20" r:id="rId50" xr:uid="{96F45443-102B-4179-8555-FDAE18BA6969}"/>
-    <hyperlink ref="E34" r:id="rId51" xr:uid="{86B4FE21-D75E-4855-8A89-12C00402AE5F}"/>
-    <hyperlink ref="E35" r:id="rId52" xr:uid="{F3BC9C86-EFCC-42CF-B5AD-44E15FDC5673}"/>
-    <hyperlink ref="E39" r:id="rId53" xr:uid="{A9D09EA9-D61E-45A1-BB38-AC4FFEB4FD12}"/>
-    <hyperlink ref="E40" r:id="rId54" xr:uid="{CC895994-A60E-4623-BD96-347EF1713503}"/>
-    <hyperlink ref="F40" r:id="rId55" xr:uid="{94E02515-B740-428B-9A3F-DE0EEEFB1791}"/>
-    <hyperlink ref="F39" r:id="rId56" xr:uid="{D5FBBDE2-4EDE-4E1F-A14A-DF34A8A76FF5}"/>
-    <hyperlink ref="F34" r:id="rId57" xr:uid="{18CF44ED-7639-400B-96C6-F45F9E463119}"/>
-    <hyperlink ref="F35" r:id="rId58" xr:uid="{FA71E175-BEBE-45DD-B18E-84F36E5DE97F}"/>
-    <hyperlink ref="E36" r:id="rId59" xr:uid="{D56D3963-A631-4F13-9697-BDF5923D6787}"/>
-    <hyperlink ref="E37" r:id="rId60" xr:uid="{A4B8EC76-C12D-4457-A0D4-E1E7AB049E84}"/>
-    <hyperlink ref="F36" r:id="rId61" xr:uid="{5E4665DF-ADDB-48E9-9FB9-880ED4D6ED7B}"/>
-    <hyperlink ref="F37" r:id="rId62" xr:uid="{787AC276-7524-4E32-A1BA-88CB764AF68E}"/>
-    <hyperlink ref="E38" r:id="rId63" xr:uid="{4E4BE04D-A573-462C-9813-A2CAE6E72787}"/>
-    <hyperlink ref="F38" r:id="rId64" xr:uid="{ED801B02-E75A-4103-BA4D-F310DE5D5450}"/>
-    <hyperlink ref="E41" r:id="rId65" xr:uid="{2D7C4F5D-4A5A-434C-96BF-97FF7D1ACDAE}"/>
-    <hyperlink ref="F41" r:id="rId66" xr:uid="{F9D61362-51D6-4860-861E-46C18F83CF8D}"/>
-    <hyperlink ref="E42" r:id="rId67" xr:uid="{AB845175-0F1E-473C-83C4-3B1B909A603D}"/>
-    <hyperlink ref="F42" r:id="rId68" xr:uid="{BD96B761-4D64-45FC-98AA-940EB5294FCD}"/>
-    <hyperlink ref="E43" r:id="rId69" xr:uid="{DC4652C2-58C4-4AD7-BA0D-828DB58F81F4}"/>
-    <hyperlink ref="F43" r:id="rId70" xr:uid="{E79AF011-6A5B-4BB5-ABB4-6897D662711A}"/>
-    <hyperlink ref="E44" r:id="rId71" xr:uid="{52B61B63-099E-4CB4-B109-F5DBE9A452F9}"/>
-    <hyperlink ref="F44" r:id="rId72" xr:uid="{860B74F0-74D6-4F38-AF2C-04CE13925EE0}"/>
-    <hyperlink ref="E45" r:id="rId73" xr:uid="{20BBE847-C17C-4CFB-BD21-22F5FA0B3F16}"/>
-    <hyperlink ref="E70" r:id="rId74" xr:uid="{CF46B2C0-F4A5-480C-89F1-DDECF527E398}"/>
-    <hyperlink ref="E71" r:id="rId75" xr:uid="{813A47BE-F0D0-4304-A07A-7EBA1E0D9591}"/>
-    <hyperlink ref="E72" r:id="rId76" xr:uid="{1A5EE8D9-D2CE-4B46-99CF-60C033754D04}"/>
-    <hyperlink ref="E73" r:id="rId77" xr:uid="{0DFB8794-3C29-4FCF-A708-CA41326542FD}"/>
-    <hyperlink ref="F73" r:id="rId78" xr:uid="{BB79A657-5896-4B40-B1A4-5E98D266F503}"/>
-    <hyperlink ref="F72" r:id="rId79" xr:uid="{D667401A-F191-4C29-8B88-EFF5F0AEBE78}"/>
-    <hyperlink ref="F70" r:id="rId80" xr:uid="{60A65D24-1581-4232-8B23-16001590E4CC}"/>
-    <hyperlink ref="F71" r:id="rId81" xr:uid="{C47CC729-A392-494D-8865-DAA905F604E0}"/>
-    <hyperlink ref="E74" r:id="rId82" xr:uid="{4781A78F-EF51-45A9-9D53-82D9EBE8C563}"/>
-    <hyperlink ref="F74" r:id="rId83" xr:uid="{2EDCD0BA-9583-4A39-8A9C-78A00ED4D800}"/>
+    <hyperlink ref="E19" r:id="rId33" xr:uid="{D7111046-16C9-4117-8B4A-E0B8E7525425}"/>
+    <hyperlink ref="E20" r:id="rId34" xr:uid="{19BCAC35-94E5-4825-8F68-6BF91B804CF7}"/>
+    <hyperlink ref="E29" r:id="rId35" xr:uid="{4E923704-E6E0-4FE5-A0AB-03A13BB55B8C}"/>
+    <hyperlink ref="E30" r:id="rId36" xr:uid="{8401B1BC-5071-451A-AA6D-4ACD1EF2F76B}"/>
+    <hyperlink ref="E32" r:id="rId37" xr:uid="{3C963513-D236-40AE-BABF-717918A7921A}"/>
+    <hyperlink ref="E34" r:id="rId38" xr:uid="{2FE493C6-CC5A-4ED9-B5FE-8AC2D0FFCA13}"/>
+    <hyperlink ref="F19" r:id="rId39" xr:uid="{19CB7A33-1EAD-4E4D-99B9-6BB8715ABA82}"/>
+    <hyperlink ref="F20" r:id="rId40" xr:uid="{63694455-2B70-4BE1-B7EC-DEE8849DDF2E}"/>
+    <hyperlink ref="F29" r:id="rId41" xr:uid="{79FE8369-E7E0-4254-9983-D6128CF6AF5B}"/>
+    <hyperlink ref="F30" r:id="rId42" xr:uid="{17EDE9A6-63B4-4798-8088-280BA02C9F78}"/>
+    <hyperlink ref="F32" r:id="rId43" xr:uid="{DA800019-466F-4266-A31C-43157608EB39}"/>
+    <hyperlink ref="F34" r:id="rId44" xr:uid="{B482D5C5-ACA5-45FD-946B-6A0CD5293733}"/>
+    <hyperlink ref="E31" r:id="rId45" xr:uid="{C34D0ECE-601B-4351-961A-36B1FBAC49EF}"/>
+    <hyperlink ref="E33" r:id="rId46" xr:uid="{58EF85F6-678C-46B5-B0EB-4A898FBDFACE}"/>
+    <hyperlink ref="F33" r:id="rId47" xr:uid="{53D65463-F1E2-4EBB-8E1B-65AB8875BFBC}"/>
+    <hyperlink ref="F31" r:id="rId48" xr:uid="{A5755B45-A982-4BEC-B2C5-D6CAA28DCDFE}"/>
+    <hyperlink ref="E21" r:id="rId49" xr:uid="{3495AA7F-A2F3-4F7B-82BA-B69E27530AB8}"/>
+    <hyperlink ref="F21" r:id="rId50" xr:uid="{96F45443-102B-4179-8555-FDAE18BA6969}"/>
+    <hyperlink ref="E40" r:id="rId51" xr:uid="{A9D09EA9-D61E-45A1-BB38-AC4FFEB4FD12}"/>
+    <hyperlink ref="E41" r:id="rId52" xr:uid="{CC895994-A60E-4623-BD96-347EF1713503}"/>
+    <hyperlink ref="F41" r:id="rId53" xr:uid="{94E02515-B740-428B-9A3F-DE0EEEFB1791}"/>
+    <hyperlink ref="F40" r:id="rId54" xr:uid="{D5FBBDE2-4EDE-4E1F-A14A-DF34A8A76FF5}"/>
+    <hyperlink ref="E37" r:id="rId55" xr:uid="{D56D3963-A631-4F13-9697-BDF5923D6787}"/>
+    <hyperlink ref="E38" r:id="rId56" xr:uid="{A4B8EC76-C12D-4457-A0D4-E1E7AB049E84}"/>
+    <hyperlink ref="F37" r:id="rId57" xr:uid="{5E4665DF-ADDB-48E9-9FB9-880ED4D6ED7B}"/>
+    <hyperlink ref="F38" r:id="rId58" xr:uid="{787AC276-7524-4E32-A1BA-88CB764AF68E}"/>
+    <hyperlink ref="E39" r:id="rId59" xr:uid="{4E4BE04D-A573-462C-9813-A2CAE6E72787}"/>
+    <hyperlink ref="F39" r:id="rId60" xr:uid="{ED801B02-E75A-4103-BA4D-F310DE5D5450}"/>
+    <hyperlink ref="E42" r:id="rId61" xr:uid="{2D7C4F5D-4A5A-434C-96BF-97FF7D1ACDAE}"/>
+    <hyperlink ref="F42" r:id="rId62" xr:uid="{F9D61362-51D6-4860-861E-46C18F83CF8D}"/>
+    <hyperlink ref="E43" r:id="rId63" xr:uid="{AB845175-0F1E-473C-83C4-3B1B909A603D}"/>
+    <hyperlink ref="F43" r:id="rId64" xr:uid="{BD96B761-4D64-45FC-98AA-940EB5294FCD}"/>
+    <hyperlink ref="E44" r:id="rId65" xr:uid="{DC4652C2-58C4-4AD7-BA0D-828DB58F81F4}"/>
+    <hyperlink ref="F44" r:id="rId66" xr:uid="{E79AF011-6A5B-4BB5-ABB4-6897D662711A}"/>
+    <hyperlink ref="E45" r:id="rId67" xr:uid="{52B61B63-099E-4CB4-B109-F5DBE9A452F9}"/>
+    <hyperlink ref="F45" r:id="rId68" xr:uid="{860B74F0-74D6-4F38-AF2C-04CE13925EE0}"/>
+    <hyperlink ref="E46" r:id="rId69" xr:uid="{20BBE847-C17C-4CFB-BD21-22F5FA0B3F16}"/>
+    <hyperlink ref="E71" r:id="rId70" xr:uid="{CF46B2C0-F4A5-480C-89F1-DDECF527E398}"/>
+    <hyperlink ref="E72" r:id="rId71" xr:uid="{813A47BE-F0D0-4304-A07A-7EBA1E0D9591}"/>
+    <hyperlink ref="E73" r:id="rId72" xr:uid="{1A5EE8D9-D2CE-4B46-99CF-60C033754D04}"/>
+    <hyperlink ref="E74" r:id="rId73" xr:uid="{0DFB8794-3C29-4FCF-A708-CA41326542FD}"/>
+    <hyperlink ref="F74" r:id="rId74" xr:uid="{BB79A657-5896-4B40-B1A4-5E98D266F503}"/>
+    <hyperlink ref="F73" r:id="rId75" xr:uid="{D667401A-F191-4C29-8B88-EFF5F0AEBE78}"/>
+    <hyperlink ref="F71" r:id="rId76" xr:uid="{60A65D24-1581-4232-8B23-16001590E4CC}"/>
+    <hyperlink ref="F72" r:id="rId77" xr:uid="{C47CC729-A392-494D-8865-DAA905F604E0}"/>
+    <hyperlink ref="E75" r:id="rId78" xr:uid="{4781A78F-EF51-45A9-9D53-82D9EBE8C563}"/>
+    <hyperlink ref="F75" r:id="rId79" xr:uid="{2EDCD0BA-9583-4A39-8A9C-78A00ED4D800}"/>
+    <hyperlink ref="E76" r:id="rId80" xr:uid="{CA2E2A7F-934C-484E-9C28-253669720380}"/>
+    <hyperlink ref="F76" r:id="rId81" display="https://media.digikey.com/pdf/Data Sheets/Seeed Technology/1027_Spec.pdf" xr:uid="{5BBAC230-D801-4C87-BB9D-301A3B322045}"/>
+    <hyperlink ref="E26" r:id="rId82" xr:uid="{457E171F-8970-483E-BF9B-92B2C9025ECE}"/>
+    <hyperlink ref="E27" r:id="rId83" xr:uid="{AE000831-5A25-4D6A-8A04-328E2A9D11FF}"/>
+    <hyperlink ref="E28" r:id="rId84" xr:uid="{9F4A3182-3EE9-4F53-AFC8-D1F24B70EF77}"/>
+    <hyperlink ref="F26" r:id="rId85" xr:uid="{36EECC06-C304-42BB-AA01-ADDDEA043BF7}"/>
+    <hyperlink ref="F27" r:id="rId86" xr:uid="{03ADD512-B339-43E5-B6A6-6995CF1B99FF}"/>
+    <hyperlink ref="F28" r:id="rId87" xr:uid="{4257199B-7F38-4386-80F0-D8C9628825B1}"/>
+    <hyperlink ref="E25" r:id="rId88" xr:uid="{B87CCFEF-C049-46D2-A0A5-4BC2CB3B44F6}"/>
+    <hyperlink ref="F25" r:id="rId89" xr:uid="{4808C5EE-E215-4E00-98DC-D81AF1A8BBB9}"/>
+    <hyperlink ref="E22" r:id="rId90" xr:uid="{5671EE7A-93A7-4150-82C4-7A1C87890C66}"/>
+    <hyperlink ref="F22" r:id="rId91" xr:uid="{CB5EDE6B-3511-4830-837A-B057787534C7}"/>
+    <hyperlink ref="E24" r:id="rId92" xr:uid="{CAF091D9-53DD-4862-B9EB-25D8E42C7804}"/>
+    <hyperlink ref="F24" r:id="rId93" xr:uid="{8F8B565C-2A27-4030-8C88-294B6643C0C4}"/>
+    <hyperlink ref="E23" r:id="rId94" xr:uid="{7ADF5CC7-1737-4184-A624-EE4B7EF0BBDC}"/>
+    <hyperlink ref="F23" r:id="rId95" xr:uid="{1A1E3A60-52C4-48DA-AD4D-6D7F5BCA7C29}"/>
+    <hyperlink ref="E47" r:id="rId96" xr:uid="{09D02DA4-C058-42F9-9BD8-32CDB76E4EE8}"/>
+    <hyperlink ref="F47" r:id="rId97" xr:uid="{E2C80F82-7C36-405A-B25E-050335F84020}"/>
+    <hyperlink ref="F18" r:id="rId98" xr:uid="{81835C98-A5E1-4CD7-8158-8762CB07E05A}"/>
+    <hyperlink ref="E18" r:id="rId99" xr:uid="{50AC3825-CE3C-4529-99EE-D5320689F24E}"/>
+    <hyperlink ref="E79" r:id="rId100" xr:uid="{DF5C1AB7-8023-4AD6-BF82-8867EA7E878C}"/>
+    <hyperlink ref="F79" r:id="rId101" xr:uid="{6C7F7249-C2B1-41D7-B5D4-17AF622D7C01}"/>
+    <hyperlink ref="E77" r:id="rId102" xr:uid="{D3FA74FF-A0EF-4F36-9D9D-EFDC87508302}"/>
+    <hyperlink ref="F77" r:id="rId103" xr:uid="{288295CC-D842-4C0E-87F8-826C3D2198B0}"/>
+    <hyperlink ref="E78" r:id="rId104" xr:uid="{AE2F363A-5A29-4587-A1EE-97B087F5BC79}"/>
+    <hyperlink ref="F78" r:id="rId105" xr:uid="{80B68F34-6962-405C-B018-795AF323FF7F}"/>
+    <hyperlink ref="E65" r:id="rId106" xr:uid="{365CAE8B-E687-4DF9-BF25-41429F978789}"/>
+    <hyperlink ref="E64" r:id="rId107" xr:uid="{C03A7982-5949-42FA-A4B0-F6C09AE86AAC}"/>
+    <hyperlink ref="E52" r:id="rId108" xr:uid="{F96C2EA9-E856-4B60-8127-0F59E6333335}"/>
+    <hyperlink ref="F52" r:id="rId109" xr:uid="{D0ECFF26-98EF-4799-9002-2FEDEA5F60B1}"/>
+    <hyperlink ref="F64" r:id="rId110" xr:uid="{CF56942C-1F19-4B95-8CAC-3BC0C5EF62CE}"/>
+    <hyperlink ref="F65" r:id="rId111" xr:uid="{D8E738F6-5540-47E6-A67E-BA23478953D6}"/>
+    <hyperlink ref="F66" r:id="rId112" xr:uid="{649BB873-1C63-4918-A98A-4076E747811D}"/>
+    <hyperlink ref="E57" r:id="rId113" xr:uid="{774810D6-02C1-40CD-815B-B1846F66EBE7}"/>
+    <hyperlink ref="E58" r:id="rId114" xr:uid="{21A34F13-A39B-400E-B4CE-EB1F8B41B67E}"/>
+    <hyperlink ref="F57" r:id="rId115" xr:uid="{00E8D27C-9B0F-4B6C-8AD1-A0F80A5488E0}"/>
+    <hyperlink ref="F58" r:id="rId116" xr:uid="{928B18AF-7B39-4B41-8314-56D4DC6BC070}"/>
+    <hyperlink ref="E59" r:id="rId117" xr:uid="{78DB063B-FF51-4ADD-B0C6-1C4C50FEA759}"/>
+    <hyperlink ref="F59" r:id="rId118" xr:uid="{332D4410-DF35-4100-B59A-B4B48CE3B8A8}"/>
+    <hyperlink ref="E60" r:id="rId119" xr:uid="{AB649D1F-390F-4749-AF90-B5F1092AF45D}"/>
+    <hyperlink ref="E61" r:id="rId120" xr:uid="{07A72800-32C8-47C5-AE7C-59B74F04E109}"/>
+    <hyperlink ref="E63" r:id="rId121" xr:uid="{EBAF17DF-3C58-4CF3-BDE6-6A23E5CF8C6C}"/>
+    <hyperlink ref="F60" r:id="rId122" xr:uid="{3A2EB8D1-CAD7-413C-BD88-7673AC25E3C4}"/>
+    <hyperlink ref="F61" r:id="rId123" xr:uid="{29422A6A-4F91-45F2-BD37-F92D7F1A9F84}"/>
+    <hyperlink ref="F63" r:id="rId124" xr:uid="{EF27552F-1004-4D95-A066-5FCD6DC57AD1}"/>
+    <hyperlink ref="E55" r:id="rId125" xr:uid="{00648FD3-CE24-4565-A279-3E3DB50AFB83}"/>
+    <hyperlink ref="F55" r:id="rId126" xr:uid="{959DE05F-D104-4CCC-AF8E-7271BB97CC06}"/>
+    <hyperlink ref="E53" r:id="rId127" xr:uid="{E75C38F7-BB50-4F25-9276-858E9E98A8AA}"/>
+    <hyperlink ref="F53" r:id="rId128" xr:uid="{FB5D0852-7836-46BA-9325-D398803965F1}"/>
+    <hyperlink ref="E69" r:id="rId129" xr:uid="{183C20B1-97FD-4FFE-8420-07C141F63302}"/>
+    <hyperlink ref="F69" r:id="rId130" xr:uid="{3085CD36-0ED3-4F40-AAB6-615B3E679656}"/>
+    <hyperlink ref="E62" r:id="rId131" xr:uid="{4461B395-25D6-47F7-B1C8-7C366E961E92}"/>
+    <hyperlink ref="F62" r:id="rId132" xr:uid="{2E69F0C3-BA09-49EF-9380-FF5B498A1204}"/>
+    <hyperlink ref="F67" r:id="rId133" xr:uid="{DAF68865-A218-448F-B51A-FB85DF0F94AA}"/>
+    <hyperlink ref="E68" r:id="rId134" xr:uid="{22BF480D-964F-4E6A-A848-DC05EE344AF6}"/>
+    <hyperlink ref="F68" r:id="rId135" xr:uid="{925C9152-BC8A-434E-ABD2-AC89E1465B18}"/>
+    <hyperlink ref="E51" r:id="rId136" xr:uid="{A44FBE71-52B0-40FF-B678-02A20077B72F}"/>
+    <hyperlink ref="F51" r:id="rId137" xr:uid="{9B07F487-89C8-4605-A9B7-1D06DD5958AA}"/>
+    <hyperlink ref="E54" r:id="rId138" xr:uid="{117E07D0-1B5A-49F4-A805-D357ED3768C0}"/>
+    <hyperlink ref="F54" r:id="rId139" xr:uid="{70BA46B0-8092-4EDF-B349-9B6808293CBE}"/>
+    <hyperlink ref="F80" r:id="rId140" xr:uid="{10A25B69-DFC2-4B89-948D-0DEE98266A91}"/>
+    <hyperlink ref="E80" r:id="rId141" xr:uid="{F05D6371-5742-4845-B93E-16E527DA102C}"/>
+    <hyperlink ref="E84" r:id="rId142" xr:uid="{F90A7413-2244-4A5A-AD80-9C640C6F2929}"/>
+    <hyperlink ref="F84" r:id="rId143" xr:uid="{95553FFA-E584-4659-8AE2-7EBE07FFC4F0}"/>
+    <hyperlink ref="F93" r:id="rId144" xr:uid="{1D268F7F-30D4-4A87-B37C-F03D6312AC3D}"/>
+    <hyperlink ref="E89" r:id="rId145" xr:uid="{764451A1-AF2A-449C-BC6B-5B9067719583}"/>
+    <hyperlink ref="F89" r:id="rId146" xr:uid="{8BAC4024-5F02-4F3A-B7F1-4C441B0B2269}"/>
+    <hyperlink ref="E86" r:id="rId147" xr:uid="{FCDE7529-F3AC-4A64-925C-8DE08622CA5B}"/>
+    <hyperlink ref="F86" r:id="rId148" xr:uid="{E2E6B181-AB88-4207-964B-55FCCEF22A4A}"/>
+    <hyperlink ref="E93" r:id="rId149" xr:uid="{C0763EAC-019E-4681-9331-1A27ACD3AC00}"/>
+    <hyperlink ref="E82" r:id="rId150" xr:uid="{1FD0D022-945D-4F92-AC13-FDB81C78C31E}"/>
+    <hyperlink ref="E87" r:id="rId151" xr:uid="{968A5647-13C7-44DA-93A0-455D24F0E428}"/>
+    <hyperlink ref="E88" r:id="rId152" xr:uid="{B8773167-F0D0-4062-A687-F464F19D03C0}"/>
+    <hyperlink ref="F87" r:id="rId153" xr:uid="{C15CB4AD-8742-4280-8F61-18D5B929300D}"/>
+    <hyperlink ref="F88" r:id="rId154" xr:uid="{AFF2EF37-9EF9-495F-92CE-5286725131F6}"/>
+    <hyperlink ref="F82" r:id="rId155" xr:uid="{6E59C559-40E1-442D-A809-DE7DE733B145}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId84"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId156"/>
 </worksheet>
 </file>
--- a/4-mill-vent/BOM.xlsx
+++ b/4-mill-vent/BOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dogma\OneDrive\Desktop\1-mill\4-mill-vent\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5F579FA-7720-497C-B9F2-2F64BE542AB5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A618C191-504A-4A8F-919A-9D8C658E45D2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3240" yWindow="2280" windowWidth="18108" windowHeight="9540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1254,8 +1254,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E82" sqref="E82"/>
+    <sheetView tabSelected="1" topLeftCell="E73" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E88" sqref="E88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
